--- a/PowerLmsData/系统资源/系统资源.xlsx
+++ b/PowerLmsData/系统资源/系统资源.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\光元\source\Repos1\PowerLms\PowerLmsData\系统资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E612D81-1A3F-4FFF-AA47-C4CBEB6228C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71875A2A-C8B1-4E17-9594-478EB9737F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -58,13 +58,53 @@
   <si>
     <t>6AE3BBB3-BAC9-4509-BF82-C8578830CD24</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkingStatusDataDics</t>
+  </si>
+  <si>
+    <t>F15BA6B2-C704-4612-8BA9-6A1D22509B2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncumbencyDataDics</t>
+  </si>
+  <si>
+    <t>在职状态表</t>
+  </si>
+  <si>
+    <t>工作状态数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95902401-0cee-4f57-9a3d-bf6ae91e2b3c</t>
+  </si>
+  <si>
+    <t>GenderDataDics</t>
+  </si>
+  <si>
+    <t>性别表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16a85bbb-5e0d-4d3a-ad0c-bf4c820e1978</t>
+  </si>
+  <si>
+    <t>QualificationsDataDics</t>
+  </si>
+  <si>
+    <t>学历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175b9776-a929-4c2d-96b7-e91fa36f0f46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,15 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -117,10 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,16 +431,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
   </cols>
@@ -441,7 +471,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -449,6 +479,50 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
